--- a/biology/Histoire de la zoologie et de la botanique/Pierre-Joseph_D'Avoine/Pierre-Joseph_D'Avoine.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre-Joseph_D'Avoine/Pierre-Joseph_D'Avoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre-Joseph_D%27Avoine</t>
+          <t>Pierre-Joseph_D'Avoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Joseph D'Avoine (né à Anvers, le 23 février 1803, mort à Malines, le 30 mars 1854) est un médecin, botaniste et polygraphe belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre-Joseph_D%27Avoine</t>
+          <t>Pierre-Joseph_D'Avoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé en médecine de l'université de Gand en 1829, Pierre-Joseph D'Avoine poursuit sa formation à Paris auprès de François Broussais, puis l'abandonne pour suivre l'enseignement de Joseph Récamier. De retour en Belgique, il s'installe à Malines comme médecin, tout en s'adonnant à la botanique, à l'horticulture, à l'arboriculture, à l'histoire et à des travaux biographiques.
-En 1838, il est cofondateur de la Société royale d’horticulture de Malines et du jardin botanique de cette ville[1]. En 1841, il devient le premier président de la Société des sciences médicales et naturelles de Malines[2].
+En 1838, il est cofondateur de la Société royale d’horticulture de Malines et du jardin botanique de cette ville. En 1841, il devient le premier président de la Société des sciences médicales et naturelles de Malines.
 Il publie divers travaux de médecine, rédige les notices biographiques de célèbres médecins belges, parmi lesquels Joachim Roelants, Thomas de Rye, Jean Storms, Jean-Corneille Jacobs et Charles van Bouchaute, ainsi qu'un Essai sur Marguerite d'Autriche et deux opuscules consacrés à Rembert Dodoens dont il est un fervent admirateur. C'est à son initiative que la statue de Dodoens fut érigée dans le jardin botanique de Malines en 1862.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre-Joseph_D%27Avoine</t>
+          <t>Pierre-Joseph_D'Avoine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médecine
 De Præcipuis peritonæi morbis, Antv., 1829.
